--- a/UpdateSoccerSchedule/UpdateSoccerScheduleConfig.xlsx
+++ b/UpdateSoccerSchedule/UpdateSoccerScheduleConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\PythonExperiments\UpdateSoccerSchedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFE9BB8-EAD1-4492-A01E-5966ABB57757}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13358053-47C6-4BE8-9A15-87D018ED71A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
     <t>MailingList</t>
   </si>
   <si>
-    <t>8015575732@mms.att.net;8019185453@mms.att.net</t>
+    <t>8015575732@mms.att.net;8019185450@pm.sprint.com;8019185102@pm.sprint.com</t>
   </si>
 </sst>
 </file>
